--- a/Reporte Gerencial/Porcentajes.xlsx
+++ b/Reporte Gerencial/Porcentajes.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18780" windowHeight="8580"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="18780" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -152,7 +152,7 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20</c:v>
@@ -282,12 +282,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="52553984"/>
-        <c:axId val="54136832"/>
+        <c:axId val="44044288"/>
+        <c:axId val="34369472"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="52553984"/>
+        <c:axId val="44044288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -296,7 +296,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54136832"/>
+        <c:crossAx val="34369472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -304,7 +304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54136832"/>
+        <c:axId val="34369472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -315,7 +315,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52553984"/>
+        <c:crossAx val="44044288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -435,12 +435,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="86764544"/>
-        <c:axId val="121430400"/>
+        <c:axId val="44045824"/>
+        <c:axId val="34371200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="86764544"/>
+        <c:axId val="44045824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121430400"/>
+        <c:crossAx val="34371200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -457,7 +457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121430400"/>
+        <c:axId val="34371200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86764544"/>
+        <c:crossAx val="44045824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -582,12 +582,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="pyramid"/>
-        <c:axId val="86352256"/>
-        <c:axId val="86354176"/>
+        <c:axId val="42597376"/>
+        <c:axId val="34372928"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="86352256"/>
+        <c:axId val="42597376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86354176"/>
+        <c:crossAx val="34372928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -604,7 +604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86354176"/>
+        <c:axId val="34372928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86352256"/>
+        <c:crossAx val="42597376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1057,10 +1057,10 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1090,7 +1090,7 @@
         <v>97</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -1110,7 +1110,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1194,7 +1194,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
